--- a/data/Subset 1/Stephanies group 1_first grade.xlsx
+++ b/data/Subset 1/Stephanies group 1_first grade.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -998,7 +998,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R1/R2</t>
+          <t>T/T2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
